--- a/data/pca/factorExposure/factorExposure_2016-11-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01721095947735815</v>
+        <v>0.01543325558505498</v>
       </c>
       <c r="C2">
-        <v>0.04501987086877948</v>
+        <v>-0.04202668019328053</v>
       </c>
       <c r="D2">
-        <v>0.0215569544574417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05601646596168866</v>
+      </c>
+      <c r="E2">
+        <v>0.0193364421202629</v>
+      </c>
+      <c r="F2">
+        <v>-0.09243927956420461</v>
+      </c>
+      <c r="G2">
+        <v>-0.03347329843632944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0516707628869545</v>
+        <v>0.03358560352206662</v>
       </c>
       <c r="C3">
-        <v>0.1031326628937429</v>
+        <v>-0.08360197058336642</v>
       </c>
       <c r="D3">
-        <v>0.02050801685096088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09586744209418144</v>
+      </c>
+      <c r="E3">
+        <v>0.02366731369999752</v>
+      </c>
+      <c r="F3">
+        <v>-0.08209880985256836</v>
+      </c>
+      <c r="G3">
+        <v>0.06751763725033609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05967803589156966</v>
+        <v>0.05903805187411298</v>
       </c>
       <c r="C4">
-        <v>0.06829794134780949</v>
+        <v>-0.06178671827154076</v>
       </c>
       <c r="D4">
-        <v>0.002327230261324065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05631973220488187</v>
+      </c>
+      <c r="E4">
+        <v>0.01382124538550183</v>
+      </c>
+      <c r="F4">
+        <v>-0.09707942878382407</v>
+      </c>
+      <c r="G4">
+        <v>0.02983760824512035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0253248901469445</v>
+        <v>0.03478969281734625</v>
       </c>
       <c r="C6">
-        <v>0.05117225823176018</v>
+        <v>-0.0387153129375778</v>
       </c>
       <c r="D6">
-        <v>0.008450062563760161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06479059403786527</v>
+      </c>
+      <c r="E6">
+        <v>0.01741591750184069</v>
+      </c>
+      <c r="F6">
+        <v>-0.08791297489679994</v>
+      </c>
+      <c r="G6">
+        <v>0.007307534902252585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02105537249727005</v>
+        <v>0.02154127429911431</v>
       </c>
       <c r="C7">
-        <v>0.0456032750126543</v>
+        <v>-0.03632418148850508</v>
       </c>
       <c r="D7">
-        <v>-0.01348758272903545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03194903866411396</v>
+      </c>
+      <c r="E7">
+        <v>-0.0001408922094398737</v>
+      </c>
+      <c r="F7">
+        <v>-0.1186064251684616</v>
+      </c>
+      <c r="G7">
+        <v>-0.009303546668077161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0005265879425518214</v>
+        <v>0.006476192606558546</v>
       </c>
       <c r="C8">
-        <v>0.01004892275483</v>
+        <v>-0.01965411493108904</v>
       </c>
       <c r="D8">
-        <v>0.01462725892254045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03390158910364317</v>
+      </c>
+      <c r="E8">
+        <v>0.01261261073657744</v>
+      </c>
+      <c r="F8">
+        <v>-0.06951061912374464</v>
+      </c>
+      <c r="G8">
+        <v>0.006274559976903715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02700405290501156</v>
+        <v>0.03714799421414455</v>
       </c>
       <c r="C9">
-        <v>0.04650348900604898</v>
+        <v>-0.04936476735694657</v>
       </c>
       <c r="D9">
-        <v>-0.003788807104625504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0392417086204483</v>
+      </c>
+      <c r="E9">
+        <v>0.008692809224132481</v>
+      </c>
+      <c r="F9">
+        <v>-0.1006679793164967</v>
+      </c>
+      <c r="G9">
+        <v>0.01308230682349643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08450141957820974</v>
+        <v>0.09602716215675317</v>
       </c>
       <c r="C10">
-        <v>-0.1962175501024511</v>
+        <v>0.1918668632351914</v>
       </c>
       <c r="D10">
-        <v>0.02584375505342987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.00737368517237457</v>
+      </c>
+      <c r="E10">
+        <v>0.03542436065617548</v>
+      </c>
+      <c r="F10">
+        <v>-0.0488552265404865</v>
+      </c>
+      <c r="G10">
+        <v>0.0004367328341025192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04112139273787811</v>
+        <v>0.03717418533823638</v>
       </c>
       <c r="C11">
-        <v>0.05597868121471937</v>
+        <v>-0.05107467495558479</v>
       </c>
       <c r="D11">
-        <v>-0.01077650851455333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0270137357809721</v>
+      </c>
+      <c r="E11">
+        <v>-0.01343177092748825</v>
+      </c>
+      <c r="F11">
+        <v>-0.06860175614510466</v>
+      </c>
+      <c r="G11">
+        <v>0.005742350928407618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03504107151733674</v>
+        <v>0.03750662008045237</v>
       </c>
       <c r="C12">
-        <v>0.0465876006504157</v>
+        <v>-0.04663303865791473</v>
       </c>
       <c r="D12">
-        <v>-0.0103802291697055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02052402329383379</v>
+      </c>
+      <c r="E12">
+        <v>-0.004451556555314148</v>
+      </c>
+      <c r="F12">
+        <v>-0.07086417572842452</v>
+      </c>
+      <c r="G12">
+        <v>0.002046790485228606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01029645653690653</v>
+        <v>0.0141984945010211</v>
       </c>
       <c r="C13">
-        <v>0.0420682814566229</v>
+        <v>-0.03979245403012511</v>
       </c>
       <c r="D13">
-        <v>0.01692674554432833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06196977076582741</v>
+      </c>
+      <c r="E13">
+        <v>0.02961698215564048</v>
+      </c>
+      <c r="F13">
+        <v>-0.1351004968461963</v>
+      </c>
+      <c r="G13">
+        <v>0.009003622004352599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.005811285270653613</v>
+        <v>0.007138121746073235</v>
       </c>
       <c r="C14">
-        <v>0.02913931306941893</v>
+        <v>-0.02516675581280882</v>
       </c>
       <c r="D14">
-        <v>-0.01441148488028018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02434164202845945</v>
+      </c>
+      <c r="E14">
+        <v>0.005957449657551602</v>
+      </c>
+      <c r="F14">
+        <v>-0.1042901593209574</v>
+      </c>
+      <c r="G14">
+        <v>-0.01718973905171988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001256786673163072</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.001095569074959403</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001580679618185697</v>
+      </c>
+      <c r="E15">
+        <v>-0.001018205532351226</v>
+      </c>
+      <c r="F15">
+        <v>-0.0007755964747605034</v>
+      </c>
+      <c r="G15">
+        <v>-0.0008455752954558882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03455152793502455</v>
+        <v>0.03443518076476034</v>
       </c>
       <c r="C16">
-        <v>0.04128125779206168</v>
+        <v>-0.04424202541931156</v>
       </c>
       <c r="D16">
-        <v>-0.002159491574060766</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02451317135417128</v>
+      </c>
+      <c r="E16">
+        <v>0.00183499313040541</v>
+      </c>
+      <c r="F16">
+        <v>-0.07393870971079126</v>
+      </c>
+      <c r="G16">
+        <v>-0.008028332967598155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03015567072148985</v>
+        <v>0.01967291120491626</v>
       </c>
       <c r="C19">
-        <v>0.06057316470125481</v>
+        <v>-0.04798824273305511</v>
       </c>
       <c r="D19">
-        <v>0.03616221727201201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09938021881165059</v>
+      </c>
+      <c r="E19">
+        <v>0.03506226790222811</v>
+      </c>
+      <c r="F19">
+        <v>-0.1358281149181097</v>
+      </c>
+      <c r="G19">
+        <v>-0.02316173932753406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01363745625277148</v>
+        <v>0.01491656930799964</v>
       </c>
       <c r="C20">
-        <v>0.04466229352662576</v>
+        <v>-0.03890567993071425</v>
       </c>
       <c r="D20">
-        <v>0.0214915815573048</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04560202897149016</v>
+      </c>
+      <c r="E20">
+        <v>0.03540613259689291</v>
+      </c>
+      <c r="F20">
+        <v>-0.1018325993755646</v>
+      </c>
+      <c r="G20">
+        <v>-0.00654294469357659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.005567661700205198</v>
+        <v>0.00860660203055176</v>
       </c>
       <c r="C21">
-        <v>0.04107689898535111</v>
+        <v>-0.04028776786375163</v>
       </c>
       <c r="D21">
-        <v>0.02500582312195679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06238532037117154</v>
+      </c>
+      <c r="E21">
+        <v>0.02994820711849464</v>
+      </c>
+      <c r="F21">
+        <v>-0.14911020864875</v>
+      </c>
+      <c r="G21">
+        <v>-0.0049706727102916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003761495113789385</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01441751662961954</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0279806674123778</v>
+      </c>
+      <c r="E22">
+        <v>0.0009976130272952197</v>
+      </c>
+      <c r="F22">
+        <v>-0.02151812376066341</v>
+      </c>
+      <c r="G22">
+        <v>0.03394457004961184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003815762585169044</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01436996217558149</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02772625748950829</v>
+      </c>
+      <c r="E23">
+        <v>0.001305840356941974</v>
+      </c>
+      <c r="F23">
+        <v>-0.0212520039183647</v>
+      </c>
+      <c r="G23">
+        <v>0.03396554332477752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02909262909073733</v>
+        <v>0.0329516926942762</v>
       </c>
       <c r="C24">
-        <v>0.04781637569120926</v>
+        <v>-0.05159683200292659</v>
       </c>
       <c r="D24">
-        <v>-0.01152069970895976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02188211152270774</v>
+      </c>
+      <c r="E24">
+        <v>-0.004200005500426019</v>
+      </c>
+      <c r="F24">
+        <v>-0.07879555489483411</v>
+      </c>
+      <c r="G24">
+        <v>-0.002705460239692462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04608220364084495</v>
+        <v>0.04320377451950676</v>
       </c>
       <c r="C25">
-        <v>0.05632878403610724</v>
+        <v>-0.05653758103714745</v>
       </c>
       <c r="D25">
-        <v>-0.02247199233417428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01832573156873362</v>
+      </c>
+      <c r="E25">
+        <v>-0.007378210313508742</v>
+      </c>
+      <c r="F25">
+        <v>-0.08448510515522026</v>
+      </c>
+      <c r="G25">
+        <v>0.01447381496465809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.008045159499387052</v>
+        <v>0.01476128342425727</v>
       </c>
       <c r="C26">
-        <v>0.01398395318306111</v>
+        <v>-0.01289827477923156</v>
       </c>
       <c r="D26">
-        <v>0.0001367017708427401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01818194273820459</v>
+      </c>
+      <c r="E26">
+        <v>0.008335212095941862</v>
+      </c>
+      <c r="F26">
+        <v>-0.08226976376405677</v>
+      </c>
+      <c r="G26">
+        <v>-0.02066353382559358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09915133846607548</v>
+        <v>0.1298708451632032</v>
       </c>
       <c r="C28">
-        <v>-0.2234024765438828</v>
+        <v>0.243984304024348</v>
       </c>
       <c r="D28">
-        <v>0.01568199910981161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01017038853236029</v>
+      </c>
+      <c r="E28">
+        <v>0.03655349289927197</v>
+      </c>
+      <c r="F28">
+        <v>-0.06178132812667986</v>
+      </c>
+      <c r="G28">
+        <v>0.006907484021170681</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.0111162665163308</v>
+        <v>0.008146849609914734</v>
       </c>
       <c r="C29">
-        <v>0.02137330834305766</v>
+        <v>-0.02156914740491076</v>
       </c>
       <c r="D29">
-        <v>-0.01189142246742544</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0146571936899443</v>
+      </c>
+      <c r="E29">
+        <v>0.010085094107621</v>
+      </c>
+      <c r="F29">
+        <v>-0.09790653985811161</v>
+      </c>
+      <c r="G29">
+        <v>-0.004287813450889221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03960813996969414</v>
+        <v>0.03849516975747812</v>
       </c>
       <c r="C30">
-        <v>0.07382873832703594</v>
+        <v>-0.0626305820353756</v>
       </c>
       <c r="D30">
-        <v>-0.001060157443807245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09503161362390654</v>
+      </c>
+      <c r="E30">
+        <v>-0.01373207445741761</v>
+      </c>
+      <c r="F30">
+        <v>-0.1103902394040871</v>
+      </c>
+      <c r="G30">
+        <v>-0.02825661839042346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04216246697569876</v>
+        <v>0.05746640350689559</v>
       </c>
       <c r="C31">
-        <v>0.03189325372881613</v>
+        <v>-0.04369743581464607</v>
       </c>
       <c r="D31">
-        <v>-0.01118994808547394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0009347865844726305</v>
+      </c>
+      <c r="E31">
+        <v>0.03214738886192969</v>
+      </c>
+      <c r="F31">
+        <v>-0.09524139039495325</v>
+      </c>
+      <c r="G31">
+        <v>0.03191034481857596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.008900903401071305</v>
+        <v>0.005007345995614768</v>
       </c>
       <c r="C32">
-        <v>0.03378632158049703</v>
+        <v>-0.02739244084725283</v>
       </c>
       <c r="D32">
-        <v>0.01122830269754166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04426495102912998</v>
+      </c>
+      <c r="E32">
+        <v>-0.001220712135888565</v>
+      </c>
+      <c r="F32">
+        <v>-0.07907035586409128</v>
+      </c>
+      <c r="G32">
+        <v>-0.01047286242283279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03043192989199334</v>
+        <v>0.02689511786602967</v>
       </c>
       <c r="C33">
-        <v>0.0577895371592555</v>
+        <v>-0.04938730202785965</v>
       </c>
       <c r="D33">
-        <v>0.004776677340410247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07189090030768143</v>
+      </c>
+      <c r="E33">
+        <v>0.008452457916381301</v>
+      </c>
+      <c r="F33">
+        <v>-0.1512577374453049</v>
+      </c>
+      <c r="G33">
+        <v>0.01005830698256561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05188389162013186</v>
+        <v>0.04301455872806209</v>
       </c>
       <c r="C34">
-        <v>0.05507936066779814</v>
+        <v>-0.06183217643085067</v>
       </c>
       <c r="D34">
-        <v>-0.01712631249752107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0252801230652432</v>
+      </c>
+      <c r="E34">
+        <v>-0.02096508419260584</v>
+      </c>
+      <c r="F34">
+        <v>-0.07685211784020432</v>
+      </c>
+      <c r="G34">
+        <v>0.001950114723312609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008634742925073727</v>
+        <v>0.01564977806582256</v>
       </c>
       <c r="C36">
-        <v>0.009367594374826241</v>
+        <v>-0.00840538898774665</v>
       </c>
       <c r="D36">
-        <v>-0.00559289067119526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0210748442991028</v>
+      </c>
+      <c r="E36">
+        <v>0.01244698236859252</v>
+      </c>
+      <c r="F36">
+        <v>-0.09579114168161572</v>
+      </c>
+      <c r="G36">
+        <v>0.002277033850409442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03585027398794511</v>
+        <v>0.02837730185848363</v>
       </c>
       <c r="C38">
-        <v>0.02255977027993522</v>
+        <v>-0.02180876567379419</v>
       </c>
       <c r="D38">
-        <v>-0.008694315616738836</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02295447665030074</v>
+      </c>
+      <c r="E38">
+        <v>0.01377134527933983</v>
+      </c>
+      <c r="F38">
+        <v>-0.08544050937760009</v>
+      </c>
+      <c r="G38">
+        <v>0.004343285699605251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03766200860568449</v>
+        <v>0.03766381432085916</v>
       </c>
       <c r="C39">
-        <v>0.08373495282968159</v>
+        <v>-0.07181453560143709</v>
       </c>
       <c r="D39">
-        <v>0.005248494744995529</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04987324489236697</v>
+      </c>
+      <c r="E39">
+        <v>-0.01308088378537323</v>
+      </c>
+      <c r="F39">
+        <v>-0.08764183075248205</v>
+      </c>
+      <c r="G39">
+        <v>-0.0327277017439646</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01686201468468122</v>
+        <v>0.01792399168605664</v>
       </c>
       <c r="C40">
-        <v>0.02717981313611158</v>
+        <v>-0.03727844751731255</v>
       </c>
       <c r="D40">
-        <v>0.01951710116956772</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03584888635084766</v>
+      </c>
+      <c r="E40">
+        <v>0.03315656040484751</v>
+      </c>
+      <c r="F40">
+        <v>-0.1186050273266706</v>
+      </c>
+      <c r="G40">
+        <v>0.04110363703190823</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0104856625532928</v>
+        <v>0.01840884559059164</v>
       </c>
       <c r="C41">
-        <v>0.0005046345666585704</v>
+        <v>-0.001708337668336293</v>
       </c>
       <c r="D41">
-        <v>-0.007847928791074994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01559978775522394</v>
+      </c>
+      <c r="E41">
+        <v>0.01762792646611498</v>
+      </c>
+      <c r="F41">
+        <v>-0.08559321639496957</v>
+      </c>
+      <c r="G41">
+        <v>-0.003910627854939873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.006067858608979715</v>
+        <v>0.004166689093090736</v>
       </c>
       <c r="C42">
-        <v>0.03272801419625013</v>
+        <v>-0.01742567243636536</v>
       </c>
       <c r="D42">
-        <v>0.01394647622082023</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.007270488648203031</v>
+      </c>
+      <c r="E42">
+        <v>0.004884920531577098</v>
+      </c>
+      <c r="F42">
+        <v>0.0226634524632912</v>
+      </c>
+      <c r="G42">
+        <v>0.00628685257734937</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03154124976795925</v>
+        <v>0.03151171582470191</v>
       </c>
       <c r="C43">
-        <v>0.01337170367953819</v>
+        <v>-0.01507869416491492</v>
       </c>
       <c r="D43">
-        <v>-0.006520637225879314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03501012558743009</v>
+      </c>
+      <c r="E43">
+        <v>0.01366144957568836</v>
+      </c>
+      <c r="F43">
+        <v>-0.1078528888629814</v>
+      </c>
+      <c r="G43">
+        <v>0.01883319310222404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01961833085057776</v>
+        <v>0.01666690598606978</v>
       </c>
       <c r="C44">
-        <v>0.05561623712461915</v>
+        <v>-0.05292462105270725</v>
       </c>
       <c r="D44">
-        <v>0.004239856285846106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03826265991827073</v>
+      </c>
+      <c r="E44">
+        <v>0.02687399570334828</v>
+      </c>
+      <c r="F44">
+        <v>-0.1127763463601047</v>
+      </c>
+      <c r="G44">
+        <v>-0.01213087448687272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0002184566186955378</v>
+        <v>0.01016676066077949</v>
       </c>
       <c r="C46">
-        <v>0.01425257615856039</v>
+        <v>-0.01753596823985269</v>
       </c>
       <c r="D46">
-        <v>-0.01907401628000334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.006641886519967356</v>
+      </c>
+      <c r="E46">
+        <v>0.01609047859652446</v>
+      </c>
+      <c r="F46">
+        <v>-0.1095992840943312</v>
+      </c>
+      <c r="G46">
+        <v>-0.009834644601724738</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0773881179090324</v>
+        <v>0.0885533539992242</v>
       </c>
       <c r="C47">
-        <v>0.06949758807463897</v>
+        <v>-0.0738591757673225</v>
       </c>
       <c r="D47">
-        <v>-0.007483944826044087</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008629036505570554</v>
+      </c>
+      <c r="E47">
+        <v>0.04042042337605636</v>
+      </c>
+      <c r="F47">
+        <v>-0.09505034028252776</v>
+      </c>
+      <c r="G47">
+        <v>0.03599502389502337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01726730813228562</v>
+        <v>0.0170522291273059</v>
       </c>
       <c r="C48">
-        <v>0.0110568905014739</v>
+        <v>-0.0146280297217528</v>
       </c>
       <c r="D48">
-        <v>-0.009186550124897254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01462338339743099</v>
+      </c>
+      <c r="E48">
+        <v>0.02211820382379302</v>
+      </c>
+      <c r="F48">
+        <v>-0.1073321639672003</v>
+      </c>
+      <c r="G48">
+        <v>-0.003813894435371019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08590401626861925</v>
+        <v>0.07425764715193561</v>
       </c>
       <c r="C50">
-        <v>0.06789316241384916</v>
+        <v>-0.06706824929455807</v>
       </c>
       <c r="D50">
-        <v>-0.02120254393204111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0003473866242435894</v>
+      </c>
+      <c r="E50">
+        <v>0.03298500656472499</v>
+      </c>
+      <c r="F50">
+        <v>-0.09268330269220475</v>
+      </c>
+      <c r="G50">
+        <v>0.06780044344373233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01402272340916017</v>
+        <v>0.0116468428368195</v>
       </c>
       <c r="C51">
-        <v>0.04036721935082346</v>
+        <v>-0.03229543179739647</v>
       </c>
       <c r="D51">
-        <v>-0.007995838101886255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04206547512743971</v>
+      </c>
+      <c r="E51">
+        <v>-0.004593372888109621</v>
+      </c>
+      <c r="F51">
+        <v>-0.09843059004394263</v>
+      </c>
+      <c r="G51">
+        <v>-0.01870130208958887</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09578052704332281</v>
+        <v>0.09218278398829063</v>
       </c>
       <c r="C53">
-        <v>0.07120506923229872</v>
+        <v>-0.08435583871737434</v>
       </c>
       <c r="D53">
-        <v>-0.02996033871337097</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03382240994854634</v>
+      </c>
+      <c r="E53">
+        <v>0.04681594395157688</v>
+      </c>
+      <c r="F53">
+        <v>-0.1007191104110294</v>
+      </c>
+      <c r="G53">
+        <v>0.04055334424287432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02970283097823102</v>
+        <v>0.03108337436678097</v>
       </c>
       <c r="C54">
-        <v>0.007393187894632998</v>
+        <v>-0.0197994586116713</v>
       </c>
       <c r="D54">
-        <v>-0.000678885626502688</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0284046747412705</v>
+      </c>
+      <c r="E54">
+        <v>0.0108847035368023</v>
+      </c>
+      <c r="F54">
+        <v>-0.1088393020080488</v>
+      </c>
+      <c r="G54">
+        <v>-0.003482292164916809</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07331748270327634</v>
+        <v>0.08408321406982898</v>
       </c>
       <c r="C55">
-        <v>0.06563951371289174</v>
+        <v>-0.06744546396197368</v>
       </c>
       <c r="D55">
-        <v>-0.02868039982440611</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04050261141167292</v>
+      </c>
+      <c r="E55">
+        <v>0.04548837477408338</v>
+      </c>
+      <c r="F55">
+        <v>-0.06845998546951011</v>
+      </c>
+      <c r="G55">
+        <v>0.03571924791613407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1493645369107172</v>
+        <v>0.1453132912471737</v>
       </c>
       <c r="C56">
-        <v>0.09402977237668622</v>
+        <v>-0.1014420190735218</v>
       </c>
       <c r="D56">
-        <v>-0.02323329997548328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.040512471919323</v>
+      </c>
+      <c r="E56">
+        <v>0.05072916126722939</v>
+      </c>
+      <c r="F56">
+        <v>-0.05989825003627806</v>
+      </c>
+      <c r="G56">
+        <v>0.04219149875433086</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.004746383096490565</v>
+        <v>0.001939351106042997</v>
       </c>
       <c r="C57">
-        <v>0.006645399438393944</v>
+        <v>-0.002933804057945489</v>
       </c>
       <c r="D57">
-        <v>0.03316522911323418</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.025571361808482</v>
+      </c>
+      <c r="E57">
+        <v>0.008714877460740589</v>
+      </c>
+      <c r="F57">
+        <v>-0.00931608197877884</v>
+      </c>
+      <c r="G57">
+        <v>-0.004789437511967494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05530516044818692</v>
+        <v>0.03426156993692951</v>
       </c>
       <c r="C58">
-        <v>0.0889298769258596</v>
+        <v>-0.03945528276281392</v>
       </c>
       <c r="D58">
-        <v>0.9703325950961067</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.6530414105998175</v>
+      </c>
+      <c r="E58">
+        <v>0.653430893067691</v>
+      </c>
+      <c r="F58">
+        <v>0.3134336520101743</v>
+      </c>
+      <c r="G58">
+        <v>0.02207102048312158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1441939345267718</v>
+        <v>0.1487304522281008</v>
       </c>
       <c r="C59">
-        <v>-0.215133258146725</v>
+        <v>0.20203513705538</v>
       </c>
       <c r="D59">
-        <v>0.01721054906405916</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.022033518701912</v>
+      </c>
+      <c r="E59">
+        <v>0.01403486419915535</v>
+      </c>
+      <c r="F59">
+        <v>-0.03643625248187774</v>
+      </c>
+      <c r="G59">
+        <v>-0.02384746888045931</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3121277855205511</v>
+        <v>0.2827454533206969</v>
       </c>
       <c r="C60">
-        <v>0.09405488779109235</v>
+        <v>-0.09373851430405569</v>
       </c>
       <c r="D60">
-        <v>0.001892146177666923</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1604238380124362</v>
+      </c>
+      <c r="E60">
+        <v>-0.2859825903832759</v>
+      </c>
+      <c r="F60">
+        <v>0.1492055231728349</v>
+      </c>
+      <c r="G60">
+        <v>0.06349682621908077</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03634476419841943</v>
+        <v>0.0406188474798456</v>
       </c>
       <c r="C61">
-        <v>0.06227023246584788</v>
+        <v>-0.06133491328232987</v>
       </c>
       <c r="D61">
-        <v>0.002607600101988238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04211448288870814</v>
+      </c>
+      <c r="E61">
+        <v>-0.003784057107570342</v>
+      </c>
+      <c r="F61">
+        <v>-0.08839096804860955</v>
+      </c>
+      <c r="G61">
+        <v>0.002011555682833321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01539984028548638</v>
+        <v>0.0168992261015942</v>
       </c>
       <c r="C63">
-        <v>0.02889278725458918</v>
+        <v>-0.0284749826663473</v>
       </c>
       <c r="D63">
-        <v>-0.01510326833148937</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01521952937730621</v>
+      </c>
+      <c r="E63">
+        <v>0.01373959631402648</v>
+      </c>
+      <c r="F63">
+        <v>-0.09091897782045941</v>
+      </c>
+      <c r="G63">
+        <v>0.01988333969765521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04854035042374099</v>
+        <v>0.05441915960381051</v>
       </c>
       <c r="C64">
-        <v>0.02889731858304163</v>
+        <v>-0.04913345462634198</v>
       </c>
       <c r="D64">
-        <v>-0.01557054063674319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01040633010358717</v>
+      </c>
+      <c r="E64">
+        <v>-0.002175550474622192</v>
+      </c>
+      <c r="F64">
+        <v>-0.09511406632112201</v>
+      </c>
+      <c r="G64">
+        <v>-0.01125396245505428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08698479144535659</v>
+        <v>0.06729650006378046</v>
       </c>
       <c r="C65">
-        <v>0.06258743511737512</v>
+        <v>-0.04269993257502313</v>
       </c>
       <c r="D65">
-        <v>0.006250831832687748</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07712123468478653</v>
+      </c>
+      <c r="E65">
+        <v>-0.007732080654425781</v>
+      </c>
+      <c r="F65">
+        <v>-0.03748335420345306</v>
+      </c>
+      <c r="G65">
+        <v>-0.005972260457775348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06046540316325569</v>
+        <v>0.0509051563124675</v>
       </c>
       <c r="C66">
-        <v>0.1203985824461652</v>
+        <v>-0.09704457940057433</v>
       </c>
       <c r="D66">
-        <v>0.008071557634784071</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07404286572320325</v>
+      </c>
+      <c r="E66">
+        <v>-0.01516773969042863</v>
+      </c>
+      <c r="F66">
+        <v>-0.09142514765227228</v>
+      </c>
+      <c r="G66">
+        <v>-0.01366086293236774</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06121863594705641</v>
+        <v>0.05098875709891814</v>
       </c>
       <c r="C67">
-        <v>0.0277643475918607</v>
+        <v>-0.02646717402289136</v>
       </c>
       <c r="D67">
-        <v>-0.01545666647021496</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.009445833195032335</v>
+      </c>
+      <c r="E67">
+        <v>0.00574269548938862</v>
+      </c>
+      <c r="F67">
+        <v>-0.06993458480853539</v>
+      </c>
+      <c r="G67">
+        <v>0.009424110458293758</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1256066022633095</v>
+        <v>0.150719157490408</v>
       </c>
       <c r="C68">
-        <v>-0.2857193076006017</v>
+        <v>0.2631216747724595</v>
       </c>
       <c r="D68">
-        <v>0.03013089748743747</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01086090368378031</v>
+      </c>
+      <c r="E68">
+        <v>0.04195634049556381</v>
+      </c>
+      <c r="F68">
+        <v>-0.01992798532811883</v>
+      </c>
+      <c r="G68">
+        <v>-0.001048169722000762</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08469130050087273</v>
+        <v>0.08744860461832164</v>
       </c>
       <c r="C69">
-        <v>0.06723235226001162</v>
+        <v>-0.08156260618818884</v>
       </c>
       <c r="D69">
-        <v>-0.03377007404473861</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0113201841380232</v>
+      </c>
+      <c r="E69">
+        <v>0.0124828275184157</v>
+      </c>
+      <c r="F69">
+        <v>-0.09896625272694434</v>
+      </c>
+      <c r="G69">
+        <v>0.009072078719084298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1262049189995079</v>
+        <v>0.1397443439945582</v>
       </c>
       <c r="C71">
-        <v>-0.2365807338212399</v>
+        <v>0.2367233491602971</v>
       </c>
       <c r="D71">
-        <v>0.03276334761837992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02088586995707132</v>
+      </c>
+      <c r="E71">
+        <v>0.04352387707924613</v>
+      </c>
+      <c r="F71">
+        <v>-0.06631096148053504</v>
+      </c>
+      <c r="G71">
+        <v>0.0165632015149511</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07862269610516519</v>
+        <v>0.08864847554837961</v>
       </c>
       <c r="C72">
-        <v>0.0583542028151743</v>
+        <v>-0.05742977752728182</v>
       </c>
       <c r="D72">
-        <v>-0.04600928949892343</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008463881064863525</v>
+      </c>
+      <c r="E72">
+        <v>-0.02253654134493775</v>
+      </c>
+      <c r="F72">
+        <v>-0.07915899688732965</v>
+      </c>
+      <c r="G72">
+        <v>0.009702695739169025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4429147982752178</v>
+        <v>0.3534020820004125</v>
       </c>
       <c r="C73">
-        <v>0.09065612950847261</v>
+        <v>-0.07359497439153934</v>
       </c>
       <c r="D73">
-        <v>0.0195758703302277</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3443365961684638</v>
+      </c>
+      <c r="E73">
+        <v>-0.5151187302526341</v>
+      </c>
+      <c r="F73">
+        <v>0.3264079858728628</v>
+      </c>
+      <c r="G73">
+        <v>0.1513792154060469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.115092264522503</v>
+        <v>0.1121532744594113</v>
       </c>
       <c r="C74">
-        <v>0.1168114544752022</v>
+        <v>-0.101432370273964</v>
       </c>
       <c r="D74">
-        <v>-0.02719884982763582</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01802789908045076</v>
+      </c>
+      <c r="E74">
+        <v>0.06295042539853743</v>
+      </c>
+      <c r="F74">
+        <v>-0.07938167644233603</v>
+      </c>
+      <c r="G74">
+        <v>0.05673207818898856</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2581913738306115</v>
+        <v>0.2565950570858778</v>
       </c>
       <c r="C75">
-        <v>0.1255244745976921</v>
+        <v>-0.1377976567648615</v>
       </c>
       <c r="D75">
-        <v>-0.03742552904769329</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1044926781242818</v>
+      </c>
+      <c r="E75">
+        <v>0.1143490154941027</v>
+      </c>
+      <c r="F75">
+        <v>-0.02674357236899073</v>
+      </c>
+      <c r="G75">
+        <v>0.05712938585016433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1150379117887197</v>
+        <v>0.1287659378060039</v>
       </c>
       <c r="C76">
-        <v>0.1033414944937548</v>
+        <v>-0.1036451200563595</v>
       </c>
       <c r="D76">
-        <v>-0.0342789042459582</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04728457404414108</v>
+      </c>
+      <c r="E76">
+        <v>0.07847898398693687</v>
+      </c>
+      <c r="F76">
+        <v>-0.0805703502921281</v>
+      </c>
+      <c r="G76">
+        <v>0.04361986141965831</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.06899829235515678</v>
+        <v>0.06645038884786571</v>
       </c>
       <c r="C77">
-        <v>0.06125155158421922</v>
+        <v>-0.06443801564274311</v>
       </c>
       <c r="D77">
-        <v>0.02904106970123597</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06064211665842511</v>
+      </c>
+      <c r="E77">
+        <v>0.03711594494746626</v>
+      </c>
+      <c r="F77">
+        <v>-0.1035570970170488</v>
+      </c>
+      <c r="G77">
+        <v>-0.1436965510446952</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04249662006396041</v>
+        <v>0.04194136891285506</v>
       </c>
       <c r="C78">
-        <v>0.04892386024663578</v>
+        <v>-0.05480554078437089</v>
       </c>
       <c r="D78">
-        <v>0.0047772956732108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06144957775949543</v>
+      </c>
+      <c r="E78">
+        <v>-0.01914564104691935</v>
+      </c>
+      <c r="F78">
+        <v>-0.09705251528751682</v>
+      </c>
+      <c r="G78">
+        <v>-0.007146931388855705</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01059316397625045</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.03157255522043266</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03704825158515111</v>
+      </c>
+      <c r="E79">
+        <v>0.04058396274939639</v>
+      </c>
+      <c r="F79">
+        <v>-0.03176532793791183</v>
+      </c>
+      <c r="G79">
+        <v>0.03168220105592794</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04708739502501462</v>
+        <v>0.03864056496048493</v>
       </c>
       <c r="C80">
-        <v>0.05843709687645686</v>
+        <v>-0.04614417929267361</v>
       </c>
       <c r="D80">
-        <v>0.01773534940083811</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04579904916038282</v>
+      </c>
+      <c r="E80">
+        <v>0.001529764148993563</v>
+      </c>
+      <c r="F80">
+        <v>-0.03519730949827714</v>
+      </c>
+      <c r="G80">
+        <v>-0.04780099116321846</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1359276888018027</v>
+        <v>0.1412049724134179</v>
       </c>
       <c r="C81">
-        <v>0.08212146328624044</v>
+        <v>-0.0939294371135757</v>
       </c>
       <c r="D81">
-        <v>-0.03204570953148401</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07594441286935374</v>
+      </c>
+      <c r="E81">
+        <v>0.09481506101678137</v>
+      </c>
+      <c r="F81">
+        <v>-0.04114935502708263</v>
+      </c>
+      <c r="G81">
+        <v>0.04968213084651334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.06953064564812939</v>
+        <v>0.1903119771984668</v>
       </c>
       <c r="C82">
-        <v>0.04072324363756684</v>
+        <v>-0.1354908387639025</v>
       </c>
       <c r="D82">
-        <v>-0.01793475941474443</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2124080305018219</v>
+      </c>
+      <c r="E82">
+        <v>0.05259546554429401</v>
+      </c>
+      <c r="F82">
+        <v>-0.04828753307052158</v>
+      </c>
+      <c r="G82">
+        <v>0.004232881289187484</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02662133316807552</v>
+        <v>0.02719917060691434</v>
       </c>
       <c r="C83">
-        <v>0.0209712768460431</v>
+        <v>-0.03634802904764738</v>
       </c>
       <c r="D83">
-        <v>0.01505372211964211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03251270629101041</v>
+      </c>
+      <c r="E83">
+        <v>-0.006907826618280544</v>
+      </c>
+      <c r="F83">
+        <v>-0.05052761272410782</v>
+      </c>
+      <c r="G83">
+        <v>-0.0295604710849145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2410478868775302</v>
+        <v>0.2105253883107701</v>
       </c>
       <c r="C85">
-        <v>0.1217049776346974</v>
+        <v>-0.1213250248757761</v>
       </c>
       <c r="D85">
-        <v>-0.1118682537699104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1034223899585475</v>
+      </c>
+      <c r="E85">
+        <v>0.03575522755517176</v>
+      </c>
+      <c r="F85">
+        <v>0.01351177555813464</v>
+      </c>
+      <c r="G85">
+        <v>0.107831131798932</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01131515649621874</v>
+        <v>0.01439184452470638</v>
       </c>
       <c r="C86">
-        <v>0.02781714908155623</v>
+        <v>-0.03077102686302634</v>
       </c>
       <c r="D86">
-        <v>0.00932070108143656</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07335585296908931</v>
+      </c>
+      <c r="E86">
+        <v>0.0006699361042387359</v>
+      </c>
+      <c r="F86">
+        <v>-0.1605829480091228</v>
+      </c>
+      <c r="G86">
+        <v>-0.02583349964233443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01097968400450627</v>
+        <v>0.02105115222790859</v>
       </c>
       <c r="C87">
-        <v>0.02795071957465089</v>
+        <v>-0.01847542630769798</v>
       </c>
       <c r="D87">
-        <v>0.0739464787549876</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09657988507231856</v>
+      </c>
+      <c r="E87">
+        <v>0.04653409437850291</v>
+      </c>
+      <c r="F87">
+        <v>-0.1112007113322528</v>
+      </c>
+      <c r="G87">
+        <v>-0.04781845109094343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.0978547648413314</v>
+        <v>0.08990613596402849</v>
       </c>
       <c r="C88">
-        <v>0.07105566233976481</v>
+        <v>-0.06149604328819241</v>
       </c>
       <c r="D88">
-        <v>-0.01437548556528516</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.008252414511670397</v>
+      </c>
+      <c r="E88">
+        <v>0.01219475010430195</v>
+      </c>
+      <c r="F88">
+        <v>-0.07917781130143715</v>
+      </c>
+      <c r="G88">
+        <v>-0.03465298317918786</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2002051626640166</v>
+        <v>0.2148783020719567</v>
       </c>
       <c r="C89">
-        <v>-0.3667670586673474</v>
+        <v>0.3766159904979191</v>
       </c>
       <c r="D89">
-        <v>-0.01496284479540962</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01821507789025507</v>
+      </c>
+      <c r="E89">
+        <v>0.01097409799491575</v>
+      </c>
+      <c r="F89">
+        <v>-0.08060314141782719</v>
+      </c>
+      <c r="G89">
+        <v>-0.08959869965114761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1880082927836817</v>
+        <v>0.1983403256388661</v>
       </c>
       <c r="C90">
-        <v>-0.3455027364711441</v>
+        <v>0.3201119177072237</v>
       </c>
       <c r="D90">
-        <v>0.02437592560978014</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01195784815012859</v>
+      </c>
+      <c r="E90">
+        <v>0.05179962244409798</v>
+      </c>
+      <c r="F90">
+        <v>-0.05257966958404069</v>
+      </c>
+      <c r="G90">
+        <v>-0.02409755729765831</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1983960505523814</v>
+        <v>0.1939629919430687</v>
       </c>
       <c r="C91">
-        <v>0.1121009366475754</v>
+        <v>-0.1341865152653257</v>
       </c>
       <c r="D91">
-        <v>-0.04277649161481899</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09254862457546614</v>
+      </c>
+      <c r="E91">
+        <v>0.0966459531612515</v>
+      </c>
+      <c r="F91">
+        <v>-0.05540260116034732</v>
+      </c>
+      <c r="G91">
+        <v>0.0463549048547017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1766250116516967</v>
+        <v>0.1800395669371814</v>
       </c>
       <c r="C92">
-        <v>-0.2717026831935839</v>
+        <v>0.2775626282052612</v>
       </c>
       <c r="D92">
-        <v>0.01629922905431349</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.005885462326620466</v>
+      </c>
+      <c r="E92">
+        <v>0.07185424926051813</v>
+      </c>
+      <c r="F92">
+        <v>-0.07288760580745551</v>
+      </c>
+      <c r="G92">
+        <v>-0.02762939749221202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2029682698426585</v>
+        <v>0.2219455293861346</v>
       </c>
       <c r="C93">
-        <v>-0.3296496962883747</v>
+        <v>0.321951053606129</v>
       </c>
       <c r="D93">
-        <v>0.02435236535709749</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.002901934473074854</v>
+      </c>
+      <c r="E93">
+        <v>0.0415080710390963</v>
+      </c>
+      <c r="F93">
+        <v>-0.05918857414308772</v>
+      </c>
+      <c r="G93">
+        <v>0.01436092174276426</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2732964614909029</v>
+        <v>0.3425219497038504</v>
       </c>
       <c r="C94">
-        <v>0.145036774586107</v>
+        <v>-0.1898967209241177</v>
       </c>
       <c r="D94">
-        <v>-0.07772028549016147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4211088613257691</v>
+      </c>
+      <c r="E94">
+        <v>0.2912697391641023</v>
+      </c>
+      <c r="F94">
+        <v>0.4343195495087322</v>
+      </c>
+      <c r="G94">
+        <v>-0.2051905263572851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08356819530488506</v>
+        <v>0.08106019423372404</v>
       </c>
       <c r="C95">
-        <v>0.09262537992600783</v>
+        <v>-0.08490318132156338</v>
       </c>
       <c r="D95">
-        <v>0.05853891496239416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1402609237808898</v>
+      </c>
+      <c r="E95">
+        <v>-0.1424843737412435</v>
+      </c>
+      <c r="F95">
+        <v>-0.01589623500093184</v>
+      </c>
+      <c r="G95">
+        <v>-0.9090067431306904</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2105103446609967</v>
+        <v>0.1925153272098755</v>
       </c>
       <c r="C98">
-        <v>0.03959252219295335</v>
+        <v>-0.03967938961530231</v>
       </c>
       <c r="D98">
-        <v>0.03531500770571863</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1517443361829608</v>
+      </c>
+      <c r="E98">
+        <v>-0.1743152039955686</v>
+      </c>
+      <c r="F98">
+        <v>0.0447337540856847</v>
+      </c>
+      <c r="G98">
+        <v>0.1067844480755556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01078244597533517</v>
+        <v>0.007962875328889292</v>
       </c>
       <c r="C101">
-        <v>0.02144678478684572</v>
+        <v>-0.02153645079898839</v>
       </c>
       <c r="D101">
-        <v>-0.01201005974990022</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0142486806067846</v>
+      </c>
+      <c r="E101">
+        <v>0.01061930440369096</v>
+      </c>
+      <c r="F101">
+        <v>-0.09760260870037145</v>
+      </c>
+      <c r="G101">
+        <v>-0.005239927760840713</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.119733299352785</v>
+        <v>0.1240604071013968</v>
       </c>
       <c r="C102">
-        <v>0.07626177119314288</v>
+        <v>-0.09672510754509123</v>
       </c>
       <c r="D102">
-        <v>-0.03222318231190584</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0468569579571443</v>
+      </c>
+      <c r="E102">
+        <v>0.009076390588469211</v>
+      </c>
+      <c r="F102">
+        <v>-0.02786481848788185</v>
+      </c>
+      <c r="G102">
+        <v>0.01254599640619014</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
